--- a/Python/lambor_Inputbox_XZHY-XGTC.xlsx
+++ b/Python/lambor_Inputbox_XZHY-XGTC.xlsx
@@ -53,15 +53,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//*[@id="myModal_editmember"]/div[2]/form/div/div[4]/a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>//*[@id="myModal_editmember"]/div[2]/form/div/div[6]/a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//*[@id="myModal_editmember"]/div[2]/form/div/div[7]/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="myModal_editmember"]/div[2]/form/div/div[4]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -393,7 +393,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -432,7 +432,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -440,7 +440,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -448,7 +448,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
